--- a/Management [DO NOT DELETE].xlsx
+++ b/Management [DO NOT DELETE].xlsx
@@ -3,12 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DEB778-8F7E-4EF9-B011-1001D28E0538}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{86DEB778-8F7E-4EF9-B011-1001D28E0538}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{DE18BFF8-2958-4401-BB2A-6FE69F763231}"/>
   <bookViews>
-    <workbookView xWindow="20025" yWindow="1545" windowWidth="19170" windowHeight="18465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Master List" sheetId="1" r:id="rId1"/>
+    <sheet name="Specific" sheetId="2" r:id="rId2"/>
+    <sheet name="First Shift" sheetId="3" r:id="rId3"/>
+    <sheet name="Second Shift" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -457,7 +460,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,4 +701,721 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D1D187-701A-4DC8-9135-EFA5075118CC}">
+  <dimension ref="A1:B53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" activeCellId="1" sqref="A1:A1048576 B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D555FD-E711-4169-923B-5602B6C331AE}">
+  <dimension ref="A1:B53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B7CBDA-FC13-4606-BF9D-97CFCFCDCC6F}">
+  <dimension ref="A1:B53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Management [DO NOT DELETE].xlsx
+++ b/Management [DO NOT DELETE].xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{86DEB778-8F7E-4EF9-B011-1001D28E0538}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{DE18BFF8-2958-4401-BB2A-6FE69F763231}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E28DEC9-9145-48F2-A114-E68B00D489FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master List" sheetId="1" r:id="rId1"/>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +708,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="A1:A1048576 B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,7 +947,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B7CBDA-FC13-4606-BF9D-97CFCFCDCC6F}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
